--- a/Biology/mice.strains.Frazer.2007.Nature/Frazer.2007.s14.discordant.alleles.xlsx
+++ b/Biology/mice.strains.Frazer.2007.Nature/Frazer.2007.s14.discordant.alleles.xlsx
@@ -1432,10 +1432,27 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
